--- a/BOM Book.xlsx
+++ b/BOM Book.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\battl\Documents\PlatformIO\Projects\LightBox 2.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{38958EC4-2488-44ED-A0D8-99938CC4CBC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75A9D768-FB8C-4B54-82D6-BED00838F3E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="1" xr2:uid="{746700D7-1C3E-49A6-AE21-530AD315AEDC}"/>
+    <workbookView xWindow="28800" yWindow="-1815" windowWidth="14400" windowHeight="17400" activeTab="1" xr2:uid="{746700D7-1C3E-49A6-AE21-530AD315AEDC}"/>
   </bookViews>
   <sheets>
     <sheet name="Pre-Alpha BOM" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Cost of materials</t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>Item</t>
+  </si>
+  <si>
+    <t>PN</t>
   </si>
 </sst>
 </file>
@@ -425,7 +428,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -451,7 +454,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -473,6 +476,9 @@
       <c r="A5" t="s">
         <v>3</v>
       </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/BOM Book.xlsx
+++ b/BOM Book.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\battl\Documents\PlatformIO\Projects\LightBox 2.0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\serrasn\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75A9D768-FB8C-4B54-82D6-BED00838F3E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B29FC1D2-385B-433A-B8CD-C18B0C7C44AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="-1815" windowWidth="14400" windowHeight="17400" activeTab="1" xr2:uid="{746700D7-1C3E-49A6-AE21-530AD315AEDC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{746700D7-1C3E-49A6-AE21-530AD315AEDC}"/>
   </bookViews>
   <sheets>
     <sheet name="Pre-Alpha BOM" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="38">
   <si>
     <t>Cost of materials</t>
   </si>
@@ -51,14 +51,116 @@
     <t>Item</t>
   </si>
   <si>
-    <t>PN</t>
+    <t>QTY needed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QTY in stock </t>
+  </si>
+  <si>
+    <t>approved</t>
+  </si>
+  <si>
+    <t>Price (Ex.VAT)</t>
+  </si>
+  <si>
+    <t>link</t>
+  </si>
+  <si>
+    <t>Minimum order QTY</t>
+  </si>
+  <si>
+    <t>supplier</t>
+  </si>
+  <si>
+    <t>Part number</t>
+  </si>
+  <si>
+    <t>Part name</t>
+  </si>
+  <si>
+    <t>Resistors</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>4.7K Ω</t>
+  </si>
+  <si>
+    <t>Amazon</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Price (Inc.VAT)</t>
+  </si>
+  <si>
+    <t>Diodes</t>
+  </si>
+  <si>
+    <t>1N5817</t>
+  </si>
+  <si>
+    <t>20V, 1A</t>
+  </si>
+  <si>
+    <t>1N4148</t>
+  </si>
+  <si>
+    <t>100V, 300mA</t>
+  </si>
+  <si>
+    <t>LED strip</t>
+  </si>
+  <si>
+    <t>HJHX Ws2812b</t>
+  </si>
+  <si>
+    <t>5m 300Leds, 60led/m</t>
+  </si>
+  <si>
+    <t>WS2812B RGB 5050SMD</t>
+  </si>
+  <si>
+    <t>1m 144Leds, 144led/m</t>
+  </si>
+  <si>
+    <t>Prototyping Board</t>
+  </si>
+  <si>
+    <t>150mmx200mm</t>
+  </si>
+  <si>
+    <t>Sourcing map</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Inc.VAT</t>
+  </si>
+  <si>
+    <t>Ex.VAT</t>
+  </si>
+  <si>
+    <t>1N4001</t>
+  </si>
+  <si>
+    <t>50V, 1A</t>
+  </si>
+  <si>
+    <t>no</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="&quot;£&quot;#,##0.00"/>
+  </numFmts>
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -74,16 +176,66 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -100,22 +252,210 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="15">
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <numFmt numFmtId="164" formatCode="&quot;£&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;£&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -126,6 +466,54 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D20FA0C9-BCA0-436E-A467-F665A4CDADD0}" name="Table_PreAlpha_BOM" displayName="Table_PreAlpha_BOM" ref="A5:L6" totalsRowShown="0" dataDxfId="4">
+  <autoFilter ref="A5:L6" xr:uid="{D20FA0C9-BCA0-436E-A467-F665A4CDADD0}"/>
+  <tableColumns count="12">
+    <tableColumn id="1" xr3:uid="{AD297426-ACD8-42FA-BF92-6F4DEA481C2D}" name="Item" dataDxfId="2">
+      <calculatedColumnFormula>ROW()-5</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{E70E1CE2-759D-4560-9D9B-CE85BD85E1DC}" name="Part name" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{12579619-FE5A-4773-88BB-C9B60945D48E}" name="Part number" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{1D3B68CB-0079-4C58-9DC3-BEB4002B1912}" name="Value" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{67E68861-8EAE-4CEA-A149-E2D2C5380DBC}" name="QTY needed" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{6C0BD324-5D15-466F-8E47-06277694567A}" name="QTY in stock " dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{84C589B2-0C81-42A7-BE64-DCBCDBBAEF94}" name="Minimum order QTY" dataDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{156FA52B-D31D-40DD-A308-9BD017D041D8}" name="supplier" dataDxfId="7"/>
+    <tableColumn id="8" xr3:uid="{9C08B10E-B138-4753-9BEC-496928B7ECF0}" name="approved" dataDxfId="6"/>
+    <tableColumn id="9" xr3:uid="{94617A01-8EB8-4C11-A2FB-28D0867123B6}" name="Price (Inc.VAT)" dataDxfId="5"/>
+    <tableColumn id="11" xr3:uid="{0968C11A-47B9-4521-8ADD-817FA20CD689}" name="Price (Ex.VAT)" dataDxfId="3"/>
+    <tableColumn id="12" xr3:uid="{B4455457-2235-495D-9326-8974872521AD}" name="link" dataCellStyle="Hyperlink"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{204A9291-BD4B-4EC6-BAAA-2FA8B7C917C8}" name="Table_Alpha_BOM" displayName="Table_Alpha_BOM" ref="A5:L12" totalsRowShown="0">
+  <autoFilter ref="A5:L12" xr:uid="{204A9291-BD4B-4EC6-BAAA-2FA8B7C917C8}"/>
+  <tableColumns count="12">
+    <tableColumn id="1" xr3:uid="{CB659392-0B7F-4A7F-A9DF-74512D34EFD2}" name="Item" dataDxfId="14">
+      <calculatedColumnFormula>ROW()-5</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{B1A19FC7-1150-4ED8-A2ED-F7F16365DC2B}" name="Part name"/>
+    <tableColumn id="10" xr3:uid="{83821E89-C3D9-45D2-AB83-CE8E6E34371E}" name="Part number"/>
+    <tableColumn id="11" xr3:uid="{0D5F989B-C7F8-4BE1-B7BA-7712732DB6EB}" name="Value"/>
+    <tableColumn id="3" xr3:uid="{B344CB3F-3D37-4543-BA3A-DEEEAC7B2DAE}" name="QTY needed"/>
+    <tableColumn id="4" xr3:uid="{0631595D-34F7-4BE8-9F50-5A92DA738D9A}" name="QTY in stock "/>
+    <tableColumn id="5" xr3:uid="{752B2A8E-9AAF-4389-87BB-2E693258B275}" name="Minimum order QTY"/>
+    <tableColumn id="6" xr3:uid="{35295690-3D19-46E8-9EA8-35584D9BBA43}" name="supplier"/>
+    <tableColumn id="7" xr3:uid="{023A8798-7A52-4BF6-BD26-DA8BFF813F51}" name="approved"/>
+    <tableColumn id="12" xr3:uid="{621E98B0-CAB7-4E37-8AFC-998E46C8F90D}" name="Price (Inc.VAT)" dataDxfId="13"/>
+    <tableColumn id="8" xr3:uid="{51B2ED6B-4F1B-4A47-BFC1-40C1A769C44D}" name="Price (Ex.VAT)"/>
+    <tableColumn id="9" xr3:uid="{5F7F5B95-94E8-4889-8673-C6430EFA5AEA}" name="link" dataDxfId="12">
+      <calculatedColumnFormula>HYPERLINK("https://www.amazon.co.uk/sourcing-map-Metal-Resistors-Tolerances/dp/B07LGKKM63/ref=sr_1_6?crid=K6R7E64D7QAU&amp;keywords=4.7k+ohm+resistor+100ps&amp;qid=1684907453&amp;sprefix=4.7k+ohm+resistor+100ps%2Caps%2C152&amp;sr=8-6", "Amazon")</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -425,65 +813,495 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{029C7AEC-1483-4821-B524-7082E5233AFB}">
-  <dimension ref="A1:C2"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" customWidth="1"/>
+    <col min="10" max="10" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:12" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-    </row>
-    <row r="2" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+    </row>
+    <row r="2" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f t="shared" ref="A6" si="0">ROW()-5</f>
+        <v>1</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6">
+        <v>100</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>100</v>
+      </c>
+      <c r="H6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J6" s="4">
+        <v>5.99</v>
+      </c>
+      <c r="K6" s="14"/>
+      <c r="L6" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="L6" r:id="rId1" xr:uid="{1DDD9196-AC28-4B29-9A34-0855F7AE8CDB}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2082C5E9-9DEA-4C7B-8CA1-F97B331A0EAD}">
-  <dimension ref="A1:C5"/>
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" customWidth="1"/>
+    <col min="6" max="6" width="20.5703125" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.5703125" customWidth="1"/>
+    <col min="16" max="16" width="9.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:17" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-    </row>
-    <row r="2" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+    </row>
+    <row r="3" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O3" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="P3" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q3" s="4"/>
+    </row>
+    <row r="4" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="O4" s="12">
+        <f>SUM(J:J)</f>
+        <v>102.36999999999999</v>
+      </c>
+      <c r="P4" s="13">
+        <f>SUM(K:K)</f>
+        <v>0</v>
+      </c>
+      <c r="Q4" s="4"/>
+    </row>
+    <row r="5" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
         <v>4</v>
       </c>
+      <c r="F5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L5" t="s">
+        <v>8</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="O5" s="10">
+        <f>P4+O4</f>
+        <v>102.36999999999999</v>
+      </c>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="4"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f t="shared" ref="A6:A8" si="0">ROW()-5</f>
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6">
+        <v>101</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>300</v>
+      </c>
+      <c r="H6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="4">
+        <v>7.49</v>
+      </c>
+      <c r="L6" s="3" t="str">
+        <f>HYPERLINK("https://www.amazon.co.uk/sourcing-map-Metal-Resistors-Tolerances/dp/B07LGKKM63/ref=sr_1_6?crid=K6R7E64D7QAU&amp;keywords=4.7k+ohm+resistor+100ps&amp;qid=1684907453&amp;sprefix=4.7k+ohm+resistor+100ps%2Caps%2C152&amp;sr=8-6", "Amazon")</f>
+        <v>Amazon</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>101</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>100</v>
+      </c>
+      <c r="H7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" s="4">
+        <v>3.99</v>
+      </c>
+      <c r="L7" s="3" t="str">
+        <f>HYPERLINK("https://www.amazon.co.uk/100-Pieces-1N5817-Schottky-Rectifier/dp/B079KDQQPD/ref=sr_1_23?crid=V6RF1JSBKVW3&amp;keywords=300+x+diodes&amp;qid=1684907778&amp;sprefix=300+x+diodes%2Caps%2C91&amp;sr=8-23", "Amazon")</f>
+        <v>Amazon</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8">
+        <v>101</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>500</v>
+      </c>
+      <c r="H8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" s="4">
+        <v>11.16</v>
+      </c>
+      <c r="L8" s="5" t="str">
+        <f>HYPERLINK("https://www.amazon.co.uk/Switching-Schottky-Glasversiegeltes-Kleinsignalschaltendes-Schottky-Dioden/dp/B09FFC7FTG/ref=sr_1_42?crid=V6RF1JSBKVW3&amp;keywords=300+x+diodes&amp;qid=1684907778&amp;sprefix=300+x+diodes%2Caps%2C91&amp;sr=8-42", "Amazon")</f>
+        <v>Amazon</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <f>ROW()-5</f>
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" s="4">
+        <v>24.88</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <f t="shared" ref="A10:A11" si="1">ROW()-5</f>
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" s="4">
+        <v>24.98</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11" s="4">
+        <v>17.88</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <f>ROW()-5</f>
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
+      </c>
+      <c r="H12" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" t="s">
+        <v>17</v>
+      </c>
+      <c r="J12" s="4">
+        <v>11.99</v>
+      </c>
+      <c r="L12" s="5" t="str">
+        <f>HYPERLINK("https://www.amazon.co.uk/sourcing-map-Metal-Resistors-Tolerances/dp/B07LGKKM63/ref=sr_1_6?crid=K6R7E64D7QAU&amp;keywords=4.7k+ohm+resistor+100ps&amp;qid=1684907453&amp;sprefix=4.7k+ohm+resistor+100ps%2Caps%2C152&amp;sr=8-6", "Amazon")</f>
+        <v>Amazon</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:C1"/>
+    <mergeCell ref="O5:P5"/>
   </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="L10" r:id="rId1" xr:uid="{B2A26D13-1613-45B7-A974-8A5C91AC7FE4}"/>
+    <hyperlink ref="L9" r:id="rId2" xr:uid="{2EA49000-4B31-4B32-8603-34861A6B1CE2}"/>
+    <hyperlink ref="L11" r:id="rId3" xr:uid="{BD2A2A9F-181A-42FC-A47C-84403ADDA1FB}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId4"/>
+  </tableParts>
 </worksheet>
 </file>